--- a/Process/location.xlsx
+++ b/Process/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DBDE4A-A821-4677-A9E1-ED7846F4ADE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D098839E-7DBB-4050-AAD8-0948CCE80DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{DC221C7B-60EE-483D-9FEA-7EB77025F0AC}"/>
   </bookViews>
@@ -431,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C9350E-B8CE-4ED8-9FA0-FC91925C6DBA}">
-  <dimension ref="A1:C505"/>
+  <dimension ref="A1:C506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A497" workbookViewId="0">
-      <selection activeCell="D505" sqref="D505"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D502" sqref="D502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5395,65 +5395,65 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451">
-        <v>5882</v>
+        <v>5907</v>
       </c>
       <c r="B451">
-        <v>461</v>
+        <v>537</v>
       </c>
       <c r="C451">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452">
-        <v>5763</v>
+        <v>5882</v>
       </c>
       <c r="B452">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C452">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453">
-        <v>5773</v>
+        <v>5763</v>
       </c>
       <c r="B453">
-        <v>573</v>
+        <v>462</v>
       </c>
       <c r="C453">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454">
-        <v>5776</v>
+        <v>5773</v>
       </c>
       <c r="B454">
-        <v>673</v>
+        <v>573</v>
       </c>
       <c r="C454">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455">
-        <v>5777</v>
+        <v>5776</v>
       </c>
       <c r="B455">
-        <v>818</v>
+        <v>673</v>
       </c>
       <c r="C455">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456">
-        <v>5793</v>
+        <v>5777</v>
       </c>
       <c r="B456">
-        <v>915</v>
+        <v>818</v>
       </c>
       <c r="C456">
         <v>1274</v>
@@ -5461,21 +5461,21 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457">
-        <v>5804</v>
+        <v>5793</v>
       </c>
       <c r="B457">
-        <v>1025</v>
+        <v>915</v>
       </c>
       <c r="C457">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458">
-        <v>5825</v>
+        <v>5804</v>
       </c>
       <c r="B458">
-        <v>1146</v>
+        <v>1025</v>
       </c>
       <c r="C458">
         <v>1273</v>
@@ -5483,35 +5483,35 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459">
-        <v>5843</v>
+        <v>5825</v>
       </c>
       <c r="B459">
-        <v>1230</v>
+        <v>1146</v>
       </c>
       <c r="C459">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460">
-        <v>5850</v>
+        <v>5843</v>
       </c>
       <c r="B460">
-        <v>1362</v>
+        <v>1230</v>
       </c>
       <c r="C460">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461">
-        <v>5842</v>
+        <v>5850</v>
       </c>
       <c r="B461">
-        <v>1470</v>
+        <v>1362</v>
       </c>
       <c r="C461">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
@@ -5519,7 +5519,7 @@
         <v>5842</v>
       </c>
       <c r="B462">
-        <v>1587</v>
+        <v>1470</v>
       </c>
       <c r="C462">
         <v>1272</v>
@@ -5527,21 +5527,21 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463">
-        <v>5843</v>
+        <v>5842</v>
       </c>
       <c r="B463">
-        <v>1707</v>
+        <v>1587</v>
       </c>
       <c r="C463">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464">
-        <v>5831</v>
+        <v>5843</v>
       </c>
       <c r="B464">
-        <v>1799</v>
+        <v>1707</v>
       </c>
       <c r="C464">
         <v>1274</v>
@@ -5549,35 +5549,35 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465">
-        <v>5843</v>
+        <v>5831</v>
       </c>
       <c r="B465">
-        <v>1873</v>
+        <v>1799</v>
       </c>
       <c r="C465">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466">
-        <v>5826</v>
+        <v>5843</v>
       </c>
       <c r="B466">
-        <v>2012</v>
+        <v>1873</v>
       </c>
       <c r="C466">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467">
-        <v>5834</v>
+        <v>5826</v>
       </c>
       <c r="B467">
-        <v>2086</v>
+        <v>2012</v>
       </c>
       <c r="C467">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
@@ -5585,10 +5585,10 @@
         <v>5834</v>
       </c>
       <c r="B468">
-        <v>2156</v>
+        <v>2086</v>
       </c>
       <c r="C468">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
@@ -5596,7 +5596,7 @@
         <v>5834</v>
       </c>
       <c r="B469">
-        <v>2225</v>
+        <v>2156</v>
       </c>
       <c r="C469">
         <v>1279</v>
@@ -5604,35 +5604,35 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470">
-        <v>5843</v>
+        <v>5834</v>
       </c>
       <c r="B470">
-        <v>2294</v>
+        <v>2225</v>
       </c>
       <c r="C470">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471">
-        <v>5839</v>
+        <v>5843</v>
       </c>
       <c r="B471">
-        <v>2370</v>
+        <v>2294</v>
       </c>
       <c r="C471">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472">
-        <v>5834</v>
+        <v>5839</v>
       </c>
       <c r="B472">
-        <v>2433</v>
+        <v>2370</v>
       </c>
       <c r="C472">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
@@ -5640,18 +5640,18 @@
         <v>5834</v>
       </c>
       <c r="B473">
-        <v>2560</v>
+        <v>2433</v>
       </c>
       <c r="C473">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474">
-        <v>5829</v>
+        <v>5834</v>
       </c>
       <c r="B474">
-        <v>2650</v>
+        <v>2560</v>
       </c>
       <c r="C474">
         <v>1283</v>
@@ -5659,10 +5659,10 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475">
-        <v>5843</v>
+        <v>5829</v>
       </c>
       <c r="B475">
-        <v>2714</v>
+        <v>2650</v>
       </c>
       <c r="C475">
         <v>1283</v>
@@ -5670,87 +5670,87 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476">
-        <v>5837</v>
+        <v>5843</v>
       </c>
       <c r="B476">
-        <v>2804</v>
+        <v>2714</v>
       </c>
       <c r="C476">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477">
-        <v>5830</v>
+        <v>5837</v>
       </c>
       <c r="B477">
-        <v>2885</v>
+        <v>2804</v>
       </c>
       <c r="C477">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478">
-        <v>5828</v>
+        <v>5830</v>
       </c>
       <c r="B478">
-        <v>2969</v>
+        <v>2885</v>
       </c>
       <c r="C478">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479">
-        <v>5820</v>
+        <v>5828</v>
       </c>
       <c r="B479">
-        <v>3010</v>
+        <v>2969</v>
       </c>
       <c r="C479">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480">
-        <v>5832</v>
+        <v>5820</v>
       </c>
       <c r="B480">
-        <v>3088</v>
+        <v>3010</v>
       </c>
       <c r="C480">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481">
-        <v>5841</v>
+        <v>5832</v>
       </c>
       <c r="B481">
-        <v>3213</v>
+        <v>3088</v>
       </c>
       <c r="C481">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482">
-        <v>5842</v>
+        <v>5841</v>
       </c>
       <c r="B482">
-        <v>3298</v>
+        <v>3213</v>
       </c>
       <c r="C482">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483">
-        <v>5832</v>
+        <v>5842</v>
       </c>
       <c r="B483">
-        <v>3375</v>
+        <v>3298</v>
       </c>
       <c r="C483">
         <v>1294</v>
@@ -5758,10 +5758,10 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484">
-        <v>5716</v>
+        <v>5832</v>
       </c>
       <c r="B484">
-        <v>3383</v>
+        <v>3375</v>
       </c>
       <c r="C484">
         <v>1294</v>
@@ -5769,98 +5769,98 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485">
-        <v>5712</v>
+        <v>5716</v>
       </c>
       <c r="B485">
-        <v>3286</v>
+        <v>3383</v>
       </c>
       <c r="C485">
-        <v>1292</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486">
-        <v>5703</v>
+        <v>5712</v>
       </c>
       <c r="B486">
-        <v>3213</v>
+        <v>3286</v>
       </c>
       <c r="C486">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487">
-        <v>5693</v>
+        <v>5703</v>
       </c>
       <c r="B487">
-        <v>3079</v>
+        <v>3213</v>
       </c>
       <c r="C487">
-        <v>1290</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488">
-        <v>5694</v>
+        <v>5693</v>
       </c>
       <c r="B488">
-        <v>3015</v>
+        <v>3079</v>
       </c>
       <c r="C488">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489">
-        <v>5689</v>
+        <v>5694</v>
       </c>
       <c r="B489">
-        <v>2960</v>
+        <v>3015</v>
       </c>
       <c r="C489">
-        <v>1286</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490">
-        <v>5683</v>
+        <v>5689</v>
       </c>
       <c r="B490">
-        <v>2870</v>
+        <v>2960</v>
       </c>
       <c r="C490">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491">
-        <v>5676</v>
+        <v>5683</v>
       </c>
       <c r="B491">
-        <v>2777</v>
+        <v>2870</v>
       </c>
       <c r="C491">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492">
-        <v>5687</v>
+        <v>5676</v>
       </c>
       <c r="B492">
-        <v>2679</v>
+        <v>2777</v>
       </c>
       <c r="C492">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493">
-        <v>5691</v>
+        <v>5687</v>
       </c>
       <c r="B493">
-        <v>2617</v>
+        <v>2679</v>
       </c>
       <c r="C493">
         <v>1283</v>
@@ -5868,13 +5868,13 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494">
-        <v>5687</v>
+        <v>5691</v>
       </c>
       <c r="B494">
-        <v>2489</v>
+        <v>2617</v>
       </c>
       <c r="C494">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
@@ -5882,40 +5882,40 @@
         <v>5687</v>
       </c>
       <c r="B495">
-        <v>2414</v>
+        <v>2489</v>
       </c>
       <c r="C495">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496">
-        <v>5683</v>
+        <v>5687</v>
       </c>
       <c r="B496">
-        <v>2330</v>
+        <v>2414</v>
       </c>
       <c r="C496">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497">
-        <v>5681</v>
+        <v>5683</v>
       </c>
       <c r="B497">
-        <v>2236</v>
+        <v>2330</v>
       </c>
       <c r="C497">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498">
-        <v>5679</v>
+        <v>5681</v>
       </c>
       <c r="B498">
-        <v>2149</v>
+        <v>2236</v>
       </c>
       <c r="C498">
         <v>1279</v>
@@ -5923,43 +5923,43 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499">
-        <v>5678</v>
+        <v>5679</v>
       </c>
       <c r="B499">
-        <v>2050</v>
+        <v>2149</v>
       </c>
       <c r="C499">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500">
-        <v>5679</v>
+        <v>5678</v>
       </c>
       <c r="B500">
-        <v>1897</v>
+        <v>2050</v>
       </c>
       <c r="C500">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501">
-        <v>5665</v>
+        <v>5679</v>
       </c>
       <c r="B501">
-        <v>1809</v>
+        <v>1897</v>
       </c>
       <c r="C501">
-        <v>1274</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502">
-        <v>5658</v>
+        <v>5665</v>
       </c>
       <c r="B502">
-        <v>1712</v>
+        <v>1809</v>
       </c>
       <c r="C502">
         <v>1274</v>
@@ -5967,13 +5967,13 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503">
-        <v>5663</v>
+        <v>5658</v>
       </c>
       <c r="B503">
-        <v>1603</v>
+        <v>1712</v>
       </c>
       <c r="C503">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
@@ -5981,7 +5981,7 @@
         <v>5663</v>
       </c>
       <c r="B504">
-        <v>1503</v>
+        <v>1603</v>
       </c>
       <c r="C504">
         <v>1273</v>
@@ -5989,12 +5989,23 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505">
+        <v>5663</v>
+      </c>
+      <c r="B505">
+        <v>1503</v>
+      </c>
+      <c r="C505">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A506">
         <v>5667</v>
       </c>
-      <c r="B505">
+      <c r="B506">
         <v>1395</v>
       </c>
-      <c r="C505">
+      <c r="C506">
         <v>1272</v>
       </c>
     </row>
